--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Desktop\Volunteer\Hotel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Desktop\Volunteer\Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607DC9C6-05F4-49D8-93FF-DF8CA3EE7D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9816F9-1EC3-4D83-8717-905C244E1A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-8265" windowWidth="16440" windowHeight="28440" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Shapiro-Wilk" sheetId="1" r:id="rId1"/>
-    <sheet name="P-values for Binary Control" sheetId="2" r:id="rId2"/>
-    <sheet name="P-values for Binary SVD" sheetId="3" r:id="rId3"/>
+    <sheet name="Adj R Sq for Binary Control" sheetId="2" r:id="rId2"/>
+    <sheet name="Adj R Sq for Binary SVD" sheetId="3" r:id="rId3"/>
     <sheet name="Weighted Shapiro Wilk Test" sheetId="4" r:id="rId4"/>
     <sheet name="P-values for Weighted" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -753,14 +753,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -851,7 +851,7 @@
         <v>3.9011527210267585E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -898,7 +898,7 @@
         <v>5.5447154855309287E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0.2807437052412135</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0.21188871531807246</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0.38049308028479256</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0.34011912036944758</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>5.11629092908676E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>1.0023167759570474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>1.6970626663381744E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>7.258247257179805E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>2.5403273161026248E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>4.4197378953172837E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>2.0561228759089683E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>2.997577130957863E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>9.0999083458217275E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>1.7519759102503199E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1603,12 +1603,12 @@
         <v>9.0294236850664588E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>1.1920389304316234E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1.089041192283481E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>8.2665208564867439E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>3.8795981994783839E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1.1666983231919931E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>3.6946186518151207E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>2.9090209717196351E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>4.8010881001379121E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>3.4303799302140976E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>9.9782797073694348E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1.0295429438315977E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>3.4205143707450049E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1.5982131040271296E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>2.4730260033336317E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>8.523176854320298E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>2.7188169758795271E-7</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -2417,13 +2417,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BW19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>-1.3651558452278278E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>-1.7145460002548241E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>3.6258953310811526E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>5.7018987859039916E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>2.5251889710474873E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>0.10775604427836627</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0.1032798985807315</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>8.7527432781641323E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>6.6979027757486875E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>9.9498805374069077E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0.10255507338329939</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>5.7911742048633363E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>4.0458033744678601E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>4.5033082752438003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>5.7862125696760747E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>5.6643791628850249E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -6316,13 +6316,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BW19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>104</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>3.0996198537751929E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>1.5932264627024684E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>1.2120105774573564E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>-1.2695156111063755E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>6.1583409826641011E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>4.687844603433633E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>-8.4338825795517991E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>2.0132844976676001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>4.2467461470001244E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>2.6385590587921115E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>2.1592521048474533E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>2.2507491972357019E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>2.3529377534062257E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>1.164288016825088E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>2.3561217561326453E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>2.9273148546141048E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -10219,14 +10219,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10317,12 +10317,12 @@
         <v>0.55104254610017644</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -10378,18 +10378,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>2.2558176433321697E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>2.0876172691286499E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>2.181140112537816E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -10668,12 +10668,12 @@
         <v>3.8349910344600779E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>2.4165528144319381E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>-4.0193086885287332E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>1.661003206796885E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Desktop\Volunteer\Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9816F9-1EC3-4D83-8717-905C244E1A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BBA8BD-1C43-4541-9DFA-11FDC1DC44A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8265" windowWidth="16440" windowHeight="28440" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Shapiro-Wilk" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Adj R Sq for Binary SVD" sheetId="3" r:id="rId3"/>
     <sheet name="Weighted Shapiro Wilk Test" sheetId="4" r:id="rId4"/>
     <sheet name="P-values for Weighted" sheetId="5" r:id="rId5"/>
+    <sheet name="AIC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="204">
   <si>
     <t>Mean.clustering</t>
   </si>
@@ -378,13 +379,271 @@
   </si>
   <si>
     <t>Age + Gender + Education</t>
+  </si>
+  <si>
+    <t>density0.08.Parameter</t>
+  </si>
+  <si>
+    <t>density0.08.AIC</t>
+  </si>
+  <si>
+    <t>density0.08.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.1.Parameter</t>
+  </si>
+  <si>
+    <t>density0.1.AIC</t>
+  </si>
+  <si>
+    <t>density0.1.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.12.Parameter</t>
+  </si>
+  <si>
+    <t>density0.12.AIC</t>
+  </si>
+  <si>
+    <t>density0.12.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.14.Parameter</t>
+  </si>
+  <si>
+    <t>density0.14.AIC</t>
+  </si>
+  <si>
+    <t>density0.14.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.16.Parameter</t>
+  </si>
+  <si>
+    <t>density0.16.AIC</t>
+  </si>
+  <si>
+    <t>density0.16.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.18.Parameter</t>
+  </si>
+  <si>
+    <t>density0.18.AIC</t>
+  </si>
+  <si>
+    <t>density0.18.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.2.Parameter</t>
+  </si>
+  <si>
+    <t>density0.2.AIC</t>
+  </si>
+  <si>
+    <t>density0.2.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.22.Parameter</t>
+  </si>
+  <si>
+    <t>density0.22.AIC</t>
+  </si>
+  <si>
+    <t>density0.22.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.24.Parameter</t>
+  </si>
+  <si>
+    <t>density0.24.AIC</t>
+  </si>
+  <si>
+    <t>density0.24.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.26.Parameter</t>
+  </si>
+  <si>
+    <t>density0.26.AIC</t>
+  </si>
+  <si>
+    <t>density0.26.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.28.Parameter</t>
+  </si>
+  <si>
+    <t>density0.28.AIC</t>
+  </si>
+  <si>
+    <t>density0.28.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.3.Parameter</t>
+  </si>
+  <si>
+    <t>density0.3.AIC</t>
+  </si>
+  <si>
+    <t>density0.3.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.32.Parameter</t>
+  </si>
+  <si>
+    <t>density0.32.AIC</t>
+  </si>
+  <si>
+    <t>density0.32.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.34.Parameter</t>
+  </si>
+  <si>
+    <t>density0.34.AIC</t>
+  </si>
+  <si>
+    <t>density0.34.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.36.Parameter</t>
+  </si>
+  <si>
+    <t>density0.36.AIC</t>
+  </si>
+  <si>
+    <t>density0.36.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.38.Parameter</t>
+  </si>
+  <si>
+    <t>density0.38.AIC</t>
+  </si>
+  <si>
+    <t>density0.38.Linear.Model</t>
+  </si>
+  <si>
+    <t>density0.4.Parameter</t>
+  </si>
+  <si>
+    <t>density0.4.AIC</t>
+  </si>
+  <si>
+    <t>density0.4.Linear.Model</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Mean-clustering</t>
+  </si>
+  <si>
+    <t>global-efficiency</t>
+  </si>
+  <si>
+    <t>characteristic-path-length</t>
+  </si>
+  <si>
+    <t>mean-node-betweenness</t>
+  </si>
+  <si>
+    <t>norm-characteristic-path-length</t>
+  </si>
+  <si>
+    <t>norm-mean-clustering</t>
+  </si>
+  <si>
+    <t>small-worldness</t>
+  </si>
+  <si>
+    <t>norm-transitivity</t>
+  </si>
+  <si>
+    <t>norm-global-efficiency</t>
+  </si>
+  <si>
+    <t>Norm-modularity</t>
+  </si>
+  <si>
+    <t>norm-mean-node-betweenness</t>
+  </si>
+  <si>
+    <t>Intercept Age</t>
+  </si>
+  <si>
+    <t>mean-clustering</t>
+  </si>
+  <si>
+    <t>Intercept Education</t>
+  </si>
+  <si>
+    <t>Intercept Education GenderMale</t>
+  </si>
+  <si>
+    <t>Intercept GenderMale Education</t>
+  </si>
+  <si>
+    <t>Intercept Education Age</t>
+  </si>
+  <si>
+    <t>Intercept GenderMale</t>
+  </si>
+  <si>
+    <t>Intercept Age Education</t>
+  </si>
+  <si>
+    <t>Intercept Education GenderMale Age</t>
+  </si>
+  <si>
+    <t>Intercept Age Education GenderMale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -404,6 +663,13 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,10 +695,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6316,7 +6584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BW19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
@@ -10911,4 +11179,2416 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:CG15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AX17" sqref="AX17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" customWidth="1"/>
+    <col min="53" max="53" width="11.28515625" customWidth="1"/>
+    <col min="58" max="58" width="9.7109375" customWidth="1"/>
+    <col min="63" max="63" width="11.140625" customWidth="1"/>
+    <col min="68" max="68" width="11.140625" customWidth="1"/>
+    <col min="73" max="73" width="11" customWidth="1"/>
+    <col min="78" max="78" width="11.28515625" customWidth="1"/>
+    <col min="83" max="83" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2">
+        <v>-704.83076208789112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2">
+        <v>-741.60706217730024</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2">
+        <v>-765.68565424864335</v>
+      </c>
+      <c r="N2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2">
+        <v>-777.41497250449743</v>
+      </c>
+      <c r="S2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" t="s">
+        <v>195</v>
+      </c>
+      <c r="W2">
+        <v>-799.65355336580035</v>
+      </c>
+      <c r="X2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC2">
+        <v>-781.98768064819944</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH2">
+        <v>-813.66339779893951</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM2">
+        <v>-831.17911976003597</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR2">
+        <v>-836.34962742228026</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW2">
+        <v>-827.60947690650755</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB2">
+        <v>-823.4075976778754</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG2">
+        <v>-830.07246225474762</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BL2">
+        <v>-824.19372896674497</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BQ2">
+        <v>-826.63733872917192</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV2">
+        <v>-831.76445686597674</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CA2">
+        <v>-829.52080756176451</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CF2">
+        <v>-828.205462210684</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-582.28741002871425</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>-628.035771142248</v>
+      </c>
+      <c r="I3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>-641.52991346656654</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>-650.7581825190515</v>
+      </c>
+      <c r="S3" t="s">
+        <v>200</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>-671.27664210875344</v>
+      </c>
+      <c r="X3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>-675.10228362077373</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>-684.90278052673875</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>-682.71353831624674</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>-705.1170841325644</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>-722.97354437935576</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>-727.57742470375103</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>-718.01986881155403</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>-732.14952248745453</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>-745.8662508659163</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>-748.77146824374574</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>-742.54786574611023</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF3">
+        <v>-731.0521536726892</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>-786.30925099198816</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>-816.30523581335831</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>-856.13484570518551</v>
+      </c>
+      <c r="N4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>-840.17187768248368</v>
+      </c>
+      <c r="S4" t="s">
+        <v>196</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>-845.12254192273633</v>
+      </c>
+      <c r="X4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>-819.48626233818823</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>-820.65893782022533</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4">
+        <v>-824.82372055476412</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4">
+        <v>-820.82605879813116</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>-808.50547792011582</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB4">
+        <v>-808.22011446031615</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG4">
+        <v>-819.90054811632444</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL4">
+        <v>-822.26252619076581</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ4">
+        <v>-828.44406231556502</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV4">
+        <v>-833.99387872828447</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA4">
+        <v>-841.03063658872838</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF4">
+        <v>-849.47697643411652</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5">
+        <v>-1017.477600518514</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5">
+        <v>-1039.6318479757308</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5">
+        <v>-1060.7696038929848</v>
+      </c>
+      <c r="N5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>184</v>
+      </c>
+      <c r="R5">
+        <v>-1060.634976380466</v>
+      </c>
+      <c r="S5" t="s">
+        <v>196</v>
+      </c>
+      <c r="V5" t="s">
+        <v>184</v>
+      </c>
+      <c r="W5">
+        <v>-1064.0748601859377</v>
+      </c>
+      <c r="X5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC5">
+        <v>-1068.1119025960313</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH5">
+        <v>-1085.5698842896354</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM5">
+        <v>-1087.2705831696937</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR5">
+        <v>-1086.0201778775504</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW5">
+        <v>-1093.2026282094441</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB5">
+        <v>-1101.0971751850693</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG5">
+        <v>-1108.3136573943268</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL5">
+        <v>-1131.2872598800102</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ5">
+        <v>-1151.3888412386418</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV5">
+        <v>-1182.4205614089074</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CA5">
+        <v>-1216.5294224905449</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF5">
+        <v>-1259.6335100235219</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6">
+        <v>-440.01199553363108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6">
+        <v>-516.24982809429787</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6">
+        <v>-579.73191042165001</v>
+      </c>
+      <c r="N6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6">
+        <v>-610.78518426006644</v>
+      </c>
+      <c r="S6" t="s">
+        <v>196</v>
+      </c>
+      <c r="V6" t="s">
+        <v>185</v>
+      </c>
+      <c r="W6">
+        <v>-637.02362662913674</v>
+      </c>
+      <c r="X6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC6">
+        <v>-658.94341092399759</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH6">
+        <v>-691.37595997484289</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM6">
+        <v>-704.63154911592767</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR6">
+        <v>-712.70942461736661</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AW6">
+        <v>-725.79248375760801</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB6">
+        <v>-736.97544203062432</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG6">
+        <v>-747.00914467958853</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BL6">
+        <v>-772.15512090866184</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ6">
+        <v>-792.51392015680517</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BV6">
+        <v>-823.65604780027024</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>185</v>
+      </c>
+      <c r="CA6">
+        <v>-858.13317694730074</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF6">
+        <v>-901.23539441429557</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-805.04851127162306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>-812.65559475833049</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>-825.10588071261361</v>
+      </c>
+      <c r="N7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>-841.33253394211511</v>
+      </c>
+      <c r="S7" t="s">
+        <v>201</v>
+      </c>
+      <c r="V7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>-825.7054608014837</v>
+      </c>
+      <c r="X7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>-805.59633716957489</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH7">
+        <v>-784.23821169274049</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM7">
+        <v>-790.49893541599499</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR7">
+        <v>-787.27452478073724</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW7">
+        <v>-798.365004310117</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB7">
+        <v>-806.41577979430826</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG7">
+        <v>-795.57652748498322</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL7">
+        <v>-800.74765588255116</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ7">
+        <v>-801.27935624452482</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV7">
+        <v>-796.81266199833112</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA7">
+        <v>-793.47706804626284</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CF7">
+        <v>-789.61464653902476</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8">
+        <v>400.92652834456135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8">
+        <v>324.68869578389382</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8">
+        <v>261.20661345653986</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8">
+        <v>230.15333961812826</v>
+      </c>
+      <c r="S8" t="s">
+        <v>196</v>
+      </c>
+      <c r="V8" t="s">
+        <v>186</v>
+      </c>
+      <c r="W8">
+        <v>203.91489724905679</v>
+      </c>
+      <c r="X8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC8">
+        <v>181.99511295419606</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH8">
+        <v>149.56256390335324</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM8">
+        <v>136.3069747622614</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR8">
+        <v>128.22909926082787</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW8">
+        <v>115.14604012058665</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB8">
+        <v>103.96308184756681</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG8">
+        <v>93.929379198604522</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL8">
+        <v>68.783402969534393</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BQ8">
+        <v>48.424603721387527</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BV8">
+        <v>17.282476077927935</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA8">
+        <v>-17.194653069107673</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF8">
+        <v>-60.296870536110774</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9">
+        <v>-632.67500339705532</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9">
+        <v>-691.89146579383748</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9">
+        <v>-739.50729358750129</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9">
+        <v>-759.97308983577079</v>
+      </c>
+      <c r="S9" t="s">
+        <v>196</v>
+      </c>
+      <c r="V9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W9">
+        <v>-777.99369670287217</v>
+      </c>
+      <c r="X9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC9">
+        <v>-792.01163789719999</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH9">
+        <v>-821.07429816910314</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM9">
+        <v>-830.50288533098376</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR9">
+        <v>-829.75327026324351</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW9">
+        <v>-839.47659156105158</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB9">
+        <v>-847.09185242284661</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG9">
+        <v>-854.53843922664498</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL9">
+        <v>-877.4075846035463</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ9">
+        <v>-895.58761066235877</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV9">
+        <v>-923.76845286245543</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>187</v>
+      </c>
+      <c r="CA9">
+        <v>-956.1125766492579</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF9">
+        <v>-996.26364697297549</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10">
+        <v>-187.37786521090993</v>
+      </c>
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10">
+        <v>-299.78567355861469</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10">
+        <v>-368.68410464483605</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>188</v>
+      </c>
+      <c r="R10">
+        <v>-412.37433650705071</v>
+      </c>
+      <c r="S10" t="s">
+        <v>201</v>
+      </c>
+      <c r="V10" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10">
+        <v>-440.98943865045055</v>
+      </c>
+      <c r="X10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC10">
+        <v>-467.68313372112436</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH10">
+        <v>-479.99757025801864</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM10">
+        <v>-490.60487754599876</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR10">
+        <v>-502.07238990821435</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW10">
+        <v>-510.99981565318649</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB10">
+        <v>-525.22076728233299</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG10">
+        <v>-549.72863539216485</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BL10">
+        <v>-558.63544272504441</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ10">
+        <v>-568.22003413840628</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BV10">
+        <v>-578.77107699631676</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>188</v>
+      </c>
+      <c r="CA10">
+        <v>-592.181921958369</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>188</v>
+      </c>
+      <c r="CF10">
+        <v>-603.38644331837168</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11">
+        <v>-241.06275765163753</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11">
+        <v>-365.14780922450427</v>
+      </c>
+      <c r="I11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11">
+        <v>-419.92717980166748</v>
+      </c>
+      <c r="N11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11">
+        <v>-474.8583217605713</v>
+      </c>
+      <c r="S11" t="s">
+        <v>194</v>
+      </c>
+      <c r="V11" t="s">
+        <v>189</v>
+      </c>
+      <c r="W11">
+        <v>-504.9263324666365</v>
+      </c>
+      <c r="X11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC11">
+        <v>-538.02045257746784</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH11">
+        <v>-550.08203489246739</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM11">
+        <v>-556.17444526330098</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR11">
+        <v>-577.78399580108771</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW11">
+        <v>-584.9274186127966</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB11">
+        <v>-595.40019299748565</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG11">
+        <v>-618.45350614493998</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL11">
+        <v>-621.10907829140729</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ11">
+        <v>-620.16759262480036</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BV11">
+        <v>-622.88974453263995</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>189</v>
+      </c>
+      <c r="CA11">
+        <v>-626.96047917194085</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF11">
+        <v>-629.84762974554405</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12">
+        <v>-202.84023421949701</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12">
+        <v>-303.16073936014692</v>
+      </c>
+      <c r="I12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12">
+        <v>-368.73165951213423</v>
+      </c>
+      <c r="N12" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>190</v>
+      </c>
+      <c r="R12">
+        <v>-406.54206014312223</v>
+      </c>
+      <c r="S12" t="s">
+        <v>201</v>
+      </c>
+      <c r="V12" t="s">
+        <v>190</v>
+      </c>
+      <c r="W12">
+        <v>-428.38796928464131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC12">
+        <v>-448.60868259096969</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH12">
+        <v>-460.57759608708648</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM12">
+        <v>-480.92370628511492</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR12">
+        <v>-488.9249579894402</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW12">
+        <v>-500.20001531830889</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB12">
+        <v>-514.60603334140274</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG12">
+        <v>-537.95634409763943</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL12">
+        <v>-555.5870414596784</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BQ12">
+        <v>-568.80218243592878</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BV12">
+        <v>-581.95577913725867</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>190</v>
+      </c>
+      <c r="CA12">
+        <v>-596.3402212782072</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF12">
+        <v>-613.57661676117084</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13">
+        <v>-848.00363237651345</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13">
+        <v>-892.05869881350361</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13">
+        <v>-924.60825833902368</v>
+      </c>
+      <c r="N13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13">
+        <v>-935.93671409566809</v>
+      </c>
+      <c r="S13" t="s">
+        <v>196</v>
+      </c>
+      <c r="V13" t="s">
+        <v>191</v>
+      </c>
+      <c r="W13">
+        <v>-948.00212721357593</v>
+      </c>
+      <c r="X13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC13">
+        <v>-957.66442317922929</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH13">
+        <v>-982.4419494785177</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM13">
+        <v>-989.85081328335866</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR13">
+        <v>-989.1073050052189</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW13">
+        <v>-1000.3151586160371</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB13">
+        <v>-1011.3648122532597</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG13">
+        <v>-1022.2516549599347</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BL13">
+        <v>-1048.9736217414613</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ13">
+        <v>-1072.6129566882012</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BV13">
+        <v>-1106.2029564005545</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>191</v>
+      </c>
+      <c r="CA13">
+        <v>-1143.7016439994584</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>191</v>
+      </c>
+      <c r="CF13">
+        <v>-1189.2287343819223</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14">
+        <v>-610.7080596976981</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14">
+        <v>-585.40018161037051</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14">
+        <v>-566.01669285376045</v>
+      </c>
+      <c r="N14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>192</v>
+      </c>
+      <c r="R14">
+        <v>-565.48697326621789</v>
+      </c>
+      <c r="S14" t="s">
+        <v>199</v>
+      </c>
+      <c r="V14" t="s">
+        <v>192</v>
+      </c>
+      <c r="W14">
+        <v>-533.40545349568333</v>
+      </c>
+      <c r="X14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC14">
+        <v>-498.05685313953973</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH14">
+        <v>-464.18864040700475</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM14">
+        <v>-458.47712206628705</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR14">
+        <v>-446.35523354617948</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW14">
+        <v>-443.33935324107796</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB14">
+        <v>-443.56380969174302</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG14">
+        <v>-419.44614443271553</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL14">
+        <v>-411.71486492950294</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ14">
+        <v>-402.60426039990028</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV14">
+        <v>-388.82436228610698</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA14">
+        <v>-374.11698365194218</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF14">
+        <v>-359.74761529759149</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15">
+        <v>-537.37814847048151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15">
+        <v>-583.39407160345809</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15">
+        <v>-619.73991556581768</v>
+      </c>
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>193</v>
+      </c>
+      <c r="R15">
+        <v>-630.26976625552152</v>
+      </c>
+      <c r="S15" t="s">
+        <v>196</v>
+      </c>
+      <c r="V15" t="s">
+        <v>193</v>
+      </c>
+      <c r="W15">
+        <v>-639.5745868418129</v>
+      </c>
+      <c r="X15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC15">
+        <v>-645.5315438402705</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH15">
+        <v>-668.2218669379472</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM15">
+        <v>-672.1758721773457</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR15">
+        <v>-665.79327565985739</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW15">
+        <v>-671.0658858539357</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB15">
+        <v>-674.52379940037383</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG15">
+        <v>-678.14833449709613</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL15">
+        <v>-697.16163339180412</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ15">
+        <v>-711.51038893294481</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV15">
+        <v>-735.82576752941532</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA15">
+        <v>-764.16112134993136</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF15">
+        <v>-800.20279287595906</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Desktop\Volunteer\Hotel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Desktop\Volunteer\Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BBA8BD-1C43-4541-9DFA-11FDC1DC44A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D314ABA-E0CA-4802-9AE4-3FC848E9B02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Shapiro-Wilk" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="Adj R Sq for Binary SVD" sheetId="3" r:id="rId3"/>
     <sheet name="Weighted Shapiro Wilk Test" sheetId="4" r:id="rId4"/>
     <sheet name="P-values for Weighted" sheetId="5" r:id="rId5"/>
-    <sheet name="AIC" sheetId="6" r:id="rId6"/>
+    <sheet name="AIC Binary Control" sheetId="6" r:id="rId6"/>
+    <sheet name="AIC Binary SVD" sheetId="7" r:id="rId7"/>
+    <sheet name="AIC Weighted" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="209">
   <si>
     <t>Mean.clustering</t>
   </si>
@@ -637,6 +639,21 @@
   </si>
   <si>
     <t>Intercept Age Education GenderMale</t>
+  </si>
+  <si>
+    <t>Intercept Age GenderMale</t>
+  </si>
+  <si>
+    <t>Intercept GenderMale Age</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>Linear.Model</t>
   </si>
 </sst>
 </file>
@@ -1021,14 +1038,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1136,7 @@
         <v>3.9011527210267585E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1183,7 @@
         <v>5.5447154855309287E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1230,7 @@
         <v>0.2807437052412135</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1260,7 +1277,7 @@
         <v>0.21188871531807246</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1324,7 @@
         <v>0.38049308028479256</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>0.34011912036944758</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1418,7 @@
         <v>5.11629092908676E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1448,7 +1465,7 @@
         <v>1.0023167759570474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1512,7 @@
         <v>1.6970626663381744E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1542,7 +1559,7 @@
         <v>7.258247257179805E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1589,7 +1606,7 @@
         <v>2.5403273161026248E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1636,7 +1653,7 @@
         <v>4.4197378953172837E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1700,7 @@
         <v>2.0561228759089683E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1730,7 +1747,7 @@
         <v>2.997577130957863E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1777,7 +1794,7 @@
         <v>9.0999083458217275E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1824,7 +1841,7 @@
         <v>1.7519759102503199E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1871,12 +1888,12 @@
         <v>9.0294236850664588E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1940,7 @@
         <v>1.1920389304316234E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1970,7 +1987,7 @@
         <v>1.089041192283481E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2034,7 @@
         <v>8.2665208564867439E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2064,7 +2081,7 @@
         <v>3.8795981994783839E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2111,7 +2128,7 @@
         <v>1.1666983231919931E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2158,7 +2175,7 @@
         <v>3.6946186518151207E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2205,7 +2222,7 @@
         <v>2.9090209717196351E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2252,7 +2269,7 @@
         <v>4.8010881001379121E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2299,7 +2316,7 @@
         <v>3.4303799302140976E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -2346,7 +2363,7 @@
         <v>9.9782797073694348E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2393,7 +2410,7 @@
         <v>1.0295429438315977E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2440,7 +2457,7 @@
         <v>3.4205143707450049E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2487,7 +2504,7 @@
         <v>1.5982131040271296E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2534,7 +2551,7 @@
         <v>2.4730260033336317E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2581,7 +2598,7 @@
         <v>8.523176854320298E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2628,7 +2645,7 @@
         <v>2.7188169758795271E-7</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -2689,9 +2706,9 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2708,7 +2725,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -3135,7 +3152,7 @@
         <v>-1.3651558452278278E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -3350,7 +3367,7 @@
         <v>-1.7145460002548241E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -3565,7 +3582,7 @@
         <v>3.6258953310811526E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -3780,7 +3797,7 @@
         <v>5.7018987859039916E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -3995,7 +4012,7 @@
         <v>2.5251889710474873E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4210,7 +4227,7 @@
         <v>0.10775604427836627</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -4425,7 +4442,7 @@
         <v>0.1032798985807315</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -4640,7 +4657,7 @@
         <v>8.7527432781641323E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -4855,7 +4872,7 @@
         <v>6.6979027757486875E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -5070,7 +5087,7 @@
         <v>9.9498805374069077E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -5285,7 +5302,7 @@
         <v>0.10255507338329939</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -5500,7 +5517,7 @@
         <v>5.7911742048633363E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -5715,7 +5732,7 @@
         <v>4.0458033744678601E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -5930,7 +5947,7 @@
         <v>4.5033082752438003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -6145,7 +6162,7 @@
         <v>5.7862125696760747E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -6360,7 +6377,7 @@
         <v>5.6643791628850249E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -6588,9 +6605,9 @@
       <selection activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>104</v>
       </c>
@@ -6607,7 +6624,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -6819,7 +6836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -7034,7 +7051,7 @@
         <v>3.0996198537751929E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -7249,7 +7266,7 @@
         <v>1.5932264627024684E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -7464,7 +7481,7 @@
         <v>1.2120105774573564E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7679,7 +7696,7 @@
         <v>-1.2695156111063755E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -7894,7 +7911,7 @@
         <v>6.1583409826641011E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -8109,7 +8126,7 @@
         <v>4.687844603433633E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -8324,7 +8341,7 @@
         <v>-8.4338825795517991E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -8539,7 +8556,7 @@
         <v>2.0132844976676001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -8754,7 +8771,7 @@
         <v>4.2467461470001244E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -8969,7 +8986,7 @@
         <v>2.6385590587921115E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -9184,7 +9201,7 @@
         <v>2.1592521048474533E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -9399,7 +9416,7 @@
         <v>2.2507491972357019E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -9614,7 +9631,7 @@
         <v>2.3529377534062257E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -9829,7 +9846,7 @@
         <v>1.164288016825088E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -10044,7 +10061,7 @@
         <v>2.3561217561326453E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -10259,7 +10276,7 @@
         <v>2.9273148546141048E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -10487,14 +10504,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10538,7 +10555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10585,12 +10602,12 @@
         <v>0.55104254610017644</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -10650,14 +10667,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10701,7 +10718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -10748,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -10795,7 +10812,7 @@
         <v>2.2558176433321697E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -10842,7 +10859,7 @@
         <v>2.0876172691286499E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -10889,7 +10906,7 @@
         <v>2.181140112537816E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -10936,12 +10953,12 @@
         <v>3.8349910344600779E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -10988,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -11035,7 +11052,7 @@
         <v>2.4165528144319381E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -11082,7 +11099,7 @@
         <v>-4.0193086885287332E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -11129,7 +11146,7 @@
         <v>1.661003206796885E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -11185,42 +11202,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AX17" sqref="AX17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" customWidth="1"/>
-    <col min="53" max="53" width="11.28515625" customWidth="1"/>
-    <col min="58" max="58" width="9.7109375" customWidth="1"/>
-    <col min="63" max="63" width="11.140625" customWidth="1"/>
-    <col min="68" max="68" width="11.140625" customWidth="1"/>
-    <col min="73" max="73" width="11" customWidth="1"/>
-    <col min="78" max="78" width="11.28515625" customWidth="1"/>
-    <col min="83" max="83" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="11" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>118</v>
       </c>
@@ -11375,7 +11392,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -11533,7 +11550,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>170</v>
       </c>
@@ -11691,7 +11708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -11849,7 +11866,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -12007,7 +12024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -12165,7 +12182,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>174</v>
       </c>
@@ -12323,7 +12340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -12481,7 +12498,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -12639,7 +12656,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -12797,7 +12814,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -12955,7 +12972,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -13113,7 +13130,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -13271,7 +13288,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -13429,7 +13446,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -13585,6 +13602,2757 @@
       </c>
       <c r="CG15" t="s">
         <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:CF15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CB1" sqref="CB1:CB1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2">
+        <v>-502.70000204706537</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2">
+        <v>-541.90852519901307</v>
+      </c>
+      <c r="I2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2">
+        <v>-567.33634982263845</v>
+      </c>
+      <c r="N2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2">
+        <v>-578.37259433357769</v>
+      </c>
+      <c r="S2" t="s">
+        <v>204</v>
+      </c>
+      <c r="V2" t="s">
+        <v>195</v>
+      </c>
+      <c r="W2">
+        <v>-570.64732538576163</v>
+      </c>
+      <c r="X2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB2">
+        <v>-578.02375908090517</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG2">
+        <v>-571.62620968977546</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL2">
+        <v>-564.89933112272456</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ2">
+        <v>-566.18421718894433</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV2">
+        <v>-564.46271486469254</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA2">
+        <v>-564.2845388146203</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF2">
+        <v>-559.12597658143432</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK2">
+        <v>-560.68872521516892</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP2">
+        <v>-559.35633964573583</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BU2">
+        <v>-562.43311747615883</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BZ2">
+        <v>-556.80194483116736</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE2">
+        <v>-561.56043221572668</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-452.44074930221279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>-448.03792535757594</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>-463.47777686832569</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>-497.40146906968124</v>
+      </c>
+      <c r="S3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>-500.93292421003025</v>
+      </c>
+      <c r="X3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>-499.87866924880211</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>-490.35649863402176</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>-478.13546366896287</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>-488.29757801075442</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>-515.89859710625569</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>-509.36666984287626</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>-503.25729086375139</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>-488.02058057617324</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>-490.82760346304696</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>-487.45691591215223</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>-500.8579406813991</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>204</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>-496.48545466294206</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>-557.95437424394333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>-592.40317109205114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>-603.26388491881926</v>
+      </c>
+      <c r="N4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>-596.02338212194661</v>
+      </c>
+      <c r="S4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>-585.59560938632308</v>
+      </c>
+      <c r="X4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>-575.99108495607686</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>-565.5192033694326</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>-554.93367472864657</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>-543.58672226866179</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>-543.81998231103887</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4">
+        <v>-542.1315499575702</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF4">
+        <v>-540.69619338631423</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK4">
+        <v>-542.77971422853705</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP4">
+        <v>-548.68502770046268</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU4">
+        <v>-552.74204703783869</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ4">
+        <v>-554.62176894092829</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE4">
+        <v>-562.53149850601551</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5">
+        <v>-676.636362776184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5">
+        <v>-707.44535773335394</v>
+      </c>
+      <c r="I5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5">
+        <v>-703.49570147650991</v>
+      </c>
+      <c r="N5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>184</v>
+      </c>
+      <c r="R5">
+        <v>-695.449135014994</v>
+      </c>
+      <c r="S5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" t="s">
+        <v>184</v>
+      </c>
+      <c r="W5">
+        <v>-699.23616432722531</v>
+      </c>
+      <c r="X5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB5">
+        <v>-698.09186774858051</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG5">
+        <v>-717.7684135864564</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL5">
+        <v>-723.28730940850085</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ5">
+        <v>-727.88421129578478</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV5">
+        <v>-731.92901752506361</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA5">
+        <v>-748.63669499078799</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF5">
+        <v>-755.26939729169112</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK5">
+        <v>-769.29744982966031</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP5">
+        <v>-787.43965604471111</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU5">
+        <v>-802.96675883591445</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ5">
+        <v>-829.31542915535488</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE5">
+        <v>-864.68208925224144</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6">
+        <v>-226.91402241915335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6">
+        <v>-319.56760476401507</v>
+      </c>
+      <c r="I6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6">
+        <v>-343.92971828843849</v>
+      </c>
+      <c r="N6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6">
+        <v>-356.43124303270895</v>
+      </c>
+      <c r="S6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6" t="s">
+        <v>185</v>
+      </c>
+      <c r="W6">
+        <v>-377.68353871934045</v>
+      </c>
+      <c r="X6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB6">
+        <v>-387.88481289794231</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG6">
+        <v>-426.30335539759881</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL6">
+        <v>-442.52206665308404</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ6">
+        <v>-455.20072088358347</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV6">
+        <v>-463.16644757166847</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA6">
+        <v>-483.26181918095398</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF6">
+        <v>-491.56295313830333</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK6">
+        <v>-506.49525249820772</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP6">
+        <v>-525.51515890331132</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU6">
+        <v>-541.08092164119637</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BZ6">
+        <v>-567.55686354018064</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>185</v>
+      </c>
+      <c r="CE6">
+        <v>-603.06346442408483</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-589.06555356642514</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>-600.88767643833899</v>
+      </c>
+      <c r="I7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>-594.86846701793024</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>-583.76259790082111</v>
+      </c>
+      <c r="S7" t="s">
+        <v>104</v>
+      </c>
+      <c r="V7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>-587.48051138120593</v>
+      </c>
+      <c r="X7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>-566.90886137418863</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <v>-563.15272324523914</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL7">
+        <v>-545.65738579847971</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ7">
+        <v>-543.92989273875048</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>-543.84943254462883</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA7">
+        <v>-538.25075835789778</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF7">
+        <v>-537.43958951321883</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK7">
+        <v>-533.77595291152295</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP7">
+        <v>-536.69393423288443</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU7">
+        <v>-529.64046205322154</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ7">
+        <v>-525.97633086650512</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE7">
+        <v>-525.16991606187537</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8">
+        <v>386.971100011928</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8">
+        <v>294.31751766706475</v>
+      </c>
+      <c r="I8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8">
+        <v>269.95540414264303</v>
+      </c>
+      <c r="N8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8">
+        <v>257.45387939837082</v>
+      </c>
+      <c r="S8" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" t="s">
+        <v>186</v>
+      </c>
+      <c r="W8">
+        <v>236.20158371174139</v>
+      </c>
+      <c r="X8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB8">
+        <v>226.00030953313725</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG8">
+        <v>187.58176703348229</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL8">
+        <v>171.36305577799638</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ8">
+        <v>158.68440154749757</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV8">
+        <v>150.71867485941465</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA8">
+        <v>130.62330325012829</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF8">
+        <v>122.32216929277506</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK8">
+        <v>107.38986993287281</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP8">
+        <v>88.369963527769386</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BU8">
+        <v>72.804200789885783</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BZ8">
+        <v>46.328258890904785</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE8">
+        <v>10.821658007004595</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9">
+        <v>-368.69952289882832</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9">
+        <v>-446.38560359495096</v>
+      </c>
+      <c r="I9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9">
+        <v>-459.99600208546758</v>
+      </c>
+      <c r="N9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9">
+        <v>-465.87587312410187</v>
+      </c>
+      <c r="S9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W9">
+        <v>-482.81485581516608</v>
+      </c>
+      <c r="X9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB9">
+        <v>-489.29592844760316</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG9">
+        <v>-526.50496442318047</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL9">
+        <v>-536.8164320130029</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ9">
+        <v>-545.24744906723879</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV9">
+        <v>-548.06142391032881</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA9">
+        <v>-565.38963282812756</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF9">
+        <v>-571.38303079658954</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK9">
+        <v>-583.49957873253516</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP9">
+        <v>-601.65226027108872</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BU9">
+        <v>-615.14017458810997</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>187</v>
+      </c>
+      <c r="BZ9">
+        <v>-639.60021352386366</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>187</v>
+      </c>
+      <c r="CE9">
+        <v>-672.85580598034267</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10">
+        <v>-125.66889884284819</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10">
+        <v>-221.27323181791786</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10">
+        <v>-287.43936329832451</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>188</v>
+      </c>
+      <c r="R10">
+        <v>-293.61063587509983</v>
+      </c>
+      <c r="S10" t="s">
+        <v>197</v>
+      </c>
+      <c r="V10" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10">
+        <v>-310.87011749161587</v>
+      </c>
+      <c r="X10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB10">
+        <v>-321.51647712048043</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG10">
+        <v>-328.53814944835028</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL10">
+        <v>-332.53806239101573</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ10">
+        <v>-341.28030137824584</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV10">
+        <v>-347.6210655412724</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA10">
+        <v>-352.4195072418068</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF10">
+        <v>-354.08390801546994</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK10">
+        <v>-355.01830221664267</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP10">
+        <v>-366.23707142501968</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BU10">
+        <v>-374.24824673456681</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BZ10">
+        <v>-380.98891486565844</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>188</v>
+      </c>
+      <c r="CE10">
+        <v>-393.14943500197808</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11">
+        <v>-163.43702238342144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11">
+        <v>-259.49617703275396</v>
+      </c>
+      <c r="I11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11">
+        <v>-303.21539229356881</v>
+      </c>
+      <c r="N11" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11">
+        <v>-322.93420703735859</v>
+      </c>
+      <c r="S11" t="s">
+        <v>197</v>
+      </c>
+      <c r="V11" t="s">
+        <v>189</v>
+      </c>
+      <c r="W11">
+        <v>-358.5889312858385</v>
+      </c>
+      <c r="X11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB11">
+        <v>-370.63959883229177</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG11">
+        <v>-390.44339335010909</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL11">
+        <v>-392.58955089338315</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ11">
+        <v>-401.35707798542325</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV11">
+        <v>-412.43603029710505</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA11">
+        <v>-408.55914286218291</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF11">
+        <v>-406.51884865807705</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK11">
+        <v>-400.41615723380352</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BP11">
+        <v>-406.64544345739284</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BU11">
+        <v>-410.25613426224749</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BZ11">
+        <v>-410.07981981610243</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE11">
+        <v>-415.60871715808008</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12">
+        <v>-147.93637198662714</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12">
+        <v>-225.43906273890974</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12">
+        <v>-270.24005232951237</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>190</v>
+      </c>
+      <c r="R12">
+        <v>-279.2450479509946</v>
+      </c>
+      <c r="S12" t="s">
+        <v>196</v>
+      </c>
+      <c r="V12" t="s">
+        <v>190</v>
+      </c>
+      <c r="W12">
+        <v>-299.70765975459517</v>
+      </c>
+      <c r="X12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB12">
+        <v>-311.21991063171532</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG12">
+        <v>-319.18986686945857</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL12">
+        <v>-322.52042163123866</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ12">
+        <v>-328.98110035760146</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV12">
+        <v>-337.4369401018464</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA12">
+        <v>-343.23819861478927</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF12">
+        <v>-347.69806813035331</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK12">
+        <v>-352.90875630886586</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP12">
+        <v>-367.30707728847858</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU12">
+        <v>-377.14757393823152</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>200</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BZ12">
+        <v>-389.09282480872457</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE12">
+        <v>-403.24473455999043</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13">
+        <v>-553.20546404900222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13">
+        <v>-597.51292912050485</v>
+      </c>
+      <c r="I13" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13">
+        <v>-603.01605087309383</v>
+      </c>
+      <c r="N13" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13">
+        <v>-604.47116996406169</v>
+      </c>
+      <c r="S13" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13" t="s">
+        <v>191</v>
+      </c>
+      <c r="W13">
+        <v>-616.63319239325062</v>
+      </c>
+      <c r="X13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB13">
+        <v>-621.84866617226896</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG13">
+        <v>-648.58393187543845</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL13">
+        <v>-654.51464360070497</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ13">
+        <v>-661.1518441587375</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV13">
+        <v>-665.83066521049295</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA13">
+        <v>-684.65630559916872</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF13">
+        <v>-693.60654726732957</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK13">
+        <v>-709.27551180319517</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP13">
+        <v>-730.70682888996828</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU13">
+        <v>-748.18741291548292</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BZ13">
+        <v>-776.59104548664175</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>191</v>
+      </c>
+      <c r="CE13">
+        <v>-813.65682406845372</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14">
+        <v>-447.162483717398</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14">
+        <v>-432.97429597760271</v>
+      </c>
+      <c r="I14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14">
+        <v>-409.58969556930646</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>192</v>
+      </c>
+      <c r="R14">
+        <v>-383.84365953271782</v>
+      </c>
+      <c r="S14" t="s">
+        <v>104</v>
+      </c>
+      <c r="V14" t="s">
+        <v>192</v>
+      </c>
+      <c r="W14">
+        <v>-379.30544425406549</v>
+      </c>
+      <c r="X14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB14">
+        <v>-343.76695694325144</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG14">
+        <v>-328.95335226661257</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL14">
+        <v>-300.13651505598688</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ14">
+        <v>-287.97526592873089</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV14">
+        <v>-279.23107479998066</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA14">
+        <v>-265.0931080590766</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF14">
+        <v>-255.53581087257447</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK14">
+        <v>-246.71931304029857</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP14">
+        <v>-240.63242378913532</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU14">
+        <v>-225.54065897648695</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ14">
+        <v>-214.8684233548224</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE14">
+        <v>-206.07137396382177</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15">
+        <v>-299.30283986535972</v>
+      </c>
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15">
+        <v>-366.98992430112429</v>
+      </c>
+      <c r="I15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15">
+        <v>-372.50638816551663</v>
+      </c>
+      <c r="N15" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>193</v>
+      </c>
+      <c r="R15">
+        <v>-371.4416668118202</v>
+      </c>
+      <c r="S15" t="s">
+        <v>104</v>
+      </c>
+      <c r="V15" t="s">
+        <v>193</v>
+      </c>
+      <c r="W15">
+        <v>-382.40760558081456</v>
+      </c>
+      <c r="X15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB15">
+        <v>-383.5984688045823</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG15">
+        <v>-416.27614645474085</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL15">
+        <v>-422.07625612898897</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ15">
+        <v>-426.5695381724085</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV15">
+        <v>-425.68692617102158</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA15">
+        <v>-439.8730095817794</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF15">
+        <v>-442.94215946145425</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BK15">
+        <v>-452.07533798417631</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP15">
+        <v>-467.43727179632975</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU15">
+        <v>-478.08711122547669</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BZ15">
+        <v>-499.56818392809856</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE15">
+        <v>-529.79397875829648</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3">
+        <v>-1315.2265003284419</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3">
+        <v>-934.31621203032341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-760.81616067739901</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>-548.34505411658301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-1394.2647501941819</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>-986.7130974642954</v>
+      </c>
+      <c r="I5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6">
+        <v>-1273.5410318731949</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6">
+        <v>-898.84211543588265</v>
+      </c>
+      <c r="I6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7">
+        <v>25.718353847956763</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7">
+        <v>96.674761799014192</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>-813.00049934650474</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>-575.30034780839503</v>
+      </c>
+      <c r="I8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9">
+        <v>491.23893121964539</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9">
+        <v>394.08757078198136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10">
+        <v>-626.9361213775876</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10">
+        <v>-346.25582503456496</v>
+      </c>
+      <c r="I10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11">
+        <v>-453.92458836900613</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11">
+        <v>-301.12330459852842</v>
+      </c>
+      <c r="I11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12">
+        <v>-503.19207257751668</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12">
+        <v>-293.73652377461656</v>
+      </c>
+      <c r="I12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13">
+        <v>-439.49347671321755</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13">
+        <v>-313.18273588282494</v>
+      </c>
+      <c r="I13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14">
+        <v>-842.77715986040153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14">
+        <v>-519.72101573413283</v>
+      </c>
+      <c r="I14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15">
+        <v>-563.83977829510354</v>
+      </c>
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15">
+        <v>-391.65919971424751</v>
+      </c>
+      <c r="I15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16">
+        <v>-535.26915244889619</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16">
+        <v>-356.02774805326209</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
